--- a/OPM经济数值/世界Boss.xlsx
+++ b/OPM经济数值/世界Boss.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM数值\OPM经济数值\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D5F38E-2F9B-48A9-A2C8-D106A771148F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CEBD9B-F994-498D-BC67-6C64DB3C13C6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="84">
   <si>
     <t>积分比例</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -363,6 +363,13 @@
     <t>高等生存天赋书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>随机2星饰品</t>
+  </si>
+  <si>
+    <t>随机2星饰品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -488,8 +495,13 @@
           <cell r="A1" t="str">
             <v>代币</v>
           </cell>
+          <cell r="B1"/>
+          <cell r="C1"/>
+          <cell r="D1"/>
+          <cell r="E1"/>
         </row>
         <row r="2">
+          <cell r="A2"/>
           <cell r="B2" t="str">
             <v>经验</v>
           </cell>
@@ -507,6 +519,7 @@
           </cell>
         </row>
         <row r="3">
+          <cell r="A3"/>
           <cell r="B3" t="str">
             <v>现金</v>
           </cell>
@@ -524,6 +537,7 @@
           </cell>
         </row>
         <row r="4">
+          <cell r="A4"/>
           <cell r="B4" t="str">
             <v>体力</v>
           </cell>
@@ -538,6 +552,7 @@
           </cell>
         </row>
         <row r="5">
+          <cell r="A5"/>
           <cell r="B5" t="str">
             <v>泽尼尔币</v>
           </cell>
@@ -552,6 +567,7 @@
           </cell>
         </row>
         <row r="6">
+          <cell r="A6"/>
           <cell r="B6" t="str">
             <v>公会贡献</v>
           </cell>
@@ -566,6 +582,7 @@
           </cell>
         </row>
         <row r="7">
+          <cell r="A7"/>
           <cell r="B7" t="str">
             <v>副本代币</v>
           </cell>
@@ -580,6 +597,7 @@
           </cell>
         </row>
         <row r="8">
+          <cell r="A8"/>
           <cell r="B8" t="str">
             <v>强者之路货币</v>
           </cell>
@@ -594,9 +612,11 @@
           </cell>
         </row>
         <row r="9">
+          <cell r="A9"/>
           <cell r="B9" t="str">
             <v>钻石</v>
           </cell>
+          <cell r="C9"/>
           <cell r="D9" t="str">
             <v>cash</v>
           </cell>
@@ -608,22 +628,36 @@
           </cell>
         </row>
         <row r="10">
+          <cell r="A10"/>
           <cell r="B10" t="str">
             <v>色子</v>
           </cell>
+          <cell r="C10"/>
           <cell r="D10" t="str">
             <v>dice</v>
           </cell>
           <cell r="E10">
             <v>2</v>
           </cell>
+        </row>
+        <row r="11">
+          <cell r="A11"/>
+          <cell r="B11"/>
+          <cell r="C11"/>
+          <cell r="D11"/>
+          <cell r="E11"/>
         </row>
         <row r="12">
           <cell r="A12" t="str">
             <v>其他类型</v>
           </cell>
+          <cell r="B12"/>
+          <cell r="C12"/>
+          <cell r="D12"/>
+          <cell r="E12"/>
         </row>
         <row r="13">
+          <cell r="A13"/>
           <cell r="B13" t="str">
             <v>随机1星饰品</v>
           </cell>
@@ -641,6 +675,7 @@
           </cell>
         </row>
         <row r="14">
+          <cell r="A14"/>
           <cell r="B14" t="str">
             <v>随机2星饰品</v>
           </cell>
@@ -658,6 +693,7 @@
           </cell>
         </row>
         <row r="15">
+          <cell r="A15"/>
           <cell r="B15" t="str">
             <v>随机3星饰品</v>
           </cell>
@@ -675,6 +711,7 @@
           </cell>
         </row>
         <row r="16">
+          <cell r="A16"/>
           <cell r="B16" t="str">
             <v>随机4星饰品</v>
           </cell>
@@ -692,6 +729,7 @@
           </cell>
         </row>
         <row r="17">
+          <cell r="A17"/>
           <cell r="B17" t="str">
             <v>随机5星饰品</v>
           </cell>
@@ -709,6 +747,7 @@
           </cell>
         </row>
         <row r="18">
+          <cell r="A18"/>
           <cell r="B18" t="str">
             <v>随机图A碎片</v>
           </cell>
@@ -720,6 +759,7 @@
           </cell>
         </row>
         <row r="19">
+          <cell r="A19"/>
           <cell r="B19" t="str">
             <v>随机图B碎片</v>
           </cell>
@@ -731,6 +771,7 @@
           </cell>
         </row>
         <row r="20">
+          <cell r="A20"/>
           <cell r="B20" t="str">
             <v>随机图C碎片</v>
           </cell>
@@ -740,6 +781,13 @@
           <cell r="E20">
             <v>200</v>
           </cell>
+        </row>
+        <row r="21">
+          <cell r="A21"/>
+          <cell r="B21"/>
+          <cell r="C21"/>
+          <cell r="D21"/>
+          <cell r="E21"/>
         </row>
         <row r="22">
           <cell r="A22" t="str">
@@ -748,6 +796,8 @@
           <cell r="B22" t="str">
             <v>R</v>
           </cell>
+          <cell r="C22"/>
+          <cell r="D22"/>
           <cell r="E22">
             <v>300</v>
           </cell>
@@ -756,9 +806,12 @@
           </cell>
         </row>
         <row r="23">
+          <cell r="A23"/>
           <cell r="B23" t="str">
             <v>SR</v>
           </cell>
+          <cell r="C23"/>
+          <cell r="D23"/>
           <cell r="E23">
             <v>800</v>
           </cell>
@@ -767,9 +820,12 @@
           </cell>
         </row>
         <row r="24">
+          <cell r="A24"/>
           <cell r="B24" t="str">
             <v>SSR</v>
           </cell>
+          <cell r="C24"/>
+          <cell r="D24"/>
           <cell r="E24">
             <v>5000</v>
           </cell>
@@ -778,9 +834,12 @@
           </cell>
         </row>
         <row r="25">
+          <cell r="A25"/>
           <cell r="B25" t="str">
             <v>R碎片</v>
           </cell>
+          <cell r="C25"/>
+          <cell r="D25"/>
           <cell r="E25">
             <v>10</v>
           </cell>
@@ -789,9 +848,12 @@
           </cell>
         </row>
         <row r="26">
+          <cell r="A26"/>
           <cell r="B26" t="str">
             <v>SR碎片</v>
           </cell>
+          <cell r="C26"/>
+          <cell r="D26"/>
           <cell r="E26">
             <v>20</v>
           </cell>
@@ -800,9 +862,12 @@
           </cell>
         </row>
         <row r="27">
+          <cell r="A27"/>
           <cell r="B27" t="str">
             <v>SSR碎片</v>
           </cell>
+          <cell r="C27"/>
+          <cell r="D27"/>
           <cell r="E27">
             <v>100</v>
           </cell>
@@ -811,9 +876,11 @@
           </cell>
         </row>
         <row r="28">
+          <cell r="A28"/>
           <cell r="B28" t="str">
             <v>技能碎片</v>
           </cell>
+          <cell r="C28"/>
           <cell r="D28" t="str">
             <v>prop,403</v>
           </cell>
@@ -823,11 +890,29 @@
           <cell r="G28">
             <v>100</v>
           </cell>
+        </row>
+        <row r="29">
+          <cell r="A29"/>
+          <cell r="B29"/>
+          <cell r="C29"/>
+          <cell r="D29"/>
+          <cell r="E29"/>
+        </row>
+        <row r="30">
+          <cell r="A30"/>
+          <cell r="B30"/>
+          <cell r="C30"/>
+          <cell r="D30"/>
+          <cell r="E30"/>
         </row>
         <row r="31">
           <cell r="A31" t="str">
             <v>道具表</v>
           </cell>
+          <cell r="B31"/>
+          <cell r="C31"/>
+          <cell r="D31"/>
+          <cell r="E31"/>
         </row>
         <row r="32">
           <cell r="A32" t="str">
@@ -979,6 +1064,7 @@
           <cell r="D39" t="str">
             <v>prop,201</v>
           </cell>
+          <cell r="E39"/>
         </row>
         <row r="40">
           <cell r="A40">
@@ -2693,6 +2779,7 @@
           <cell r="D134" t="str">
             <v>prop,610</v>
           </cell>
+          <cell r="E134"/>
         </row>
         <row r="135">
           <cell r="A135">
@@ -2707,38 +2794,51 @@
           <cell r="D135" t="str">
             <v>prop,611</v>
           </cell>
+          <cell r="E135"/>
         </row>
         <row r="136">
           <cell r="A136">
             <v>612</v>
           </cell>
+          <cell r="B136"/>
+          <cell r="C136"/>
           <cell r="D136" t="str">
             <v>prop,612</v>
           </cell>
+          <cell r="E136"/>
         </row>
         <row r="137">
           <cell r="A137">
             <v>613</v>
           </cell>
+          <cell r="B137"/>
+          <cell r="C137"/>
           <cell r="D137" t="str">
             <v>prop,613</v>
           </cell>
+          <cell r="E137"/>
         </row>
         <row r="138">
           <cell r="A138">
             <v>614</v>
           </cell>
+          <cell r="B138"/>
+          <cell r="C138"/>
           <cell r="D138" t="str">
             <v>prop,614</v>
           </cell>
+          <cell r="E138"/>
         </row>
         <row r="139">
           <cell r="A139">
             <v>615</v>
           </cell>
+          <cell r="B139"/>
+          <cell r="C139"/>
           <cell r="D139" t="str">
             <v>prop,615</v>
           </cell>
+          <cell r="E139"/>
         </row>
         <row r="140">
           <cell r="A140">
@@ -2747,9 +2847,11 @@
           <cell r="B140" t="str">
             <v>公会礼包</v>
           </cell>
+          <cell r="C140"/>
           <cell r="D140" t="str">
             <v>prop,616</v>
           </cell>
+          <cell r="E140"/>
         </row>
         <row r="141">
           <cell r="A141">
@@ -2764,6 +2866,7 @@
           <cell r="D141" t="str">
             <v>prop,617</v>
           </cell>
+          <cell r="E141"/>
         </row>
         <row r="142">
           <cell r="A142">
@@ -2778,6 +2881,7 @@
           <cell r="D142" t="str">
             <v>prop,618</v>
           </cell>
+          <cell r="E142"/>
         </row>
         <row r="143">
           <cell r="A143">
@@ -2792,6 +2896,7 @@
           <cell r="D143" t="str">
             <v>prop,619</v>
           </cell>
+          <cell r="E143"/>
         </row>
         <row r="144">
           <cell r="A144">
@@ -2806,6 +2911,7 @@
           <cell r="D144" t="str">
             <v>prop,620</v>
           </cell>
+          <cell r="E144"/>
         </row>
         <row r="145">
           <cell r="A145">
@@ -2820,6 +2926,7 @@
           <cell r="D145" t="str">
             <v>prop,621</v>
           </cell>
+          <cell r="E145"/>
         </row>
         <row r="146">
           <cell r="A146">
@@ -2834,6 +2941,7 @@
           <cell r="D146" t="str">
             <v>prop,622</v>
           </cell>
+          <cell r="E146"/>
         </row>
         <row r="147">
           <cell r="A147">
@@ -2848,6 +2956,7 @@
           <cell r="D147" t="str">
             <v>prop,623</v>
           </cell>
+          <cell r="E147"/>
         </row>
         <row r="148">
           <cell r="A148">
@@ -2862,6 +2971,7 @@
           <cell r="D148" t="str">
             <v>prop,624</v>
           </cell>
+          <cell r="E148"/>
         </row>
         <row r="149">
           <cell r="A149">
@@ -2876,6 +2986,7 @@
           <cell r="D149" t="str">
             <v>prop,601</v>
           </cell>
+          <cell r="E149"/>
         </row>
         <row r="150">
           <cell r="A150">
@@ -2890,6 +3001,7 @@
           <cell r="D150" t="str">
             <v>prop,602</v>
           </cell>
+          <cell r="E150"/>
         </row>
         <row r="151">
           <cell r="A151">
@@ -2904,6 +3016,7 @@
           <cell r="D151" t="str">
             <v>prop,603</v>
           </cell>
+          <cell r="E151"/>
         </row>
         <row r="152">
           <cell r="A152">
@@ -2918,6 +3031,7 @@
           <cell r="D152" t="str">
             <v>prop,604</v>
           </cell>
+          <cell r="E152"/>
         </row>
         <row r="153">
           <cell r="A153">
@@ -2932,6 +3046,7 @@
           <cell r="D153" t="str">
             <v>prop,605</v>
           </cell>
+          <cell r="E153"/>
         </row>
         <row r="154">
           <cell r="A154">
@@ -2946,6 +3061,7 @@
           <cell r="D154" t="str">
             <v>prop,606</v>
           </cell>
+          <cell r="E154"/>
         </row>
         <row r="155">
           <cell r="A155">
@@ -2960,6 +3076,7 @@
           <cell r="D155" t="str">
             <v>prop,607</v>
           </cell>
+          <cell r="E155"/>
         </row>
         <row r="156">
           <cell r="A156">
@@ -2974,6 +3091,7 @@
           <cell r="D156" t="str">
             <v>prop,608</v>
           </cell>
+          <cell r="E156"/>
         </row>
         <row r="157">
           <cell r="A157">
@@ -3247,6 +3365,7 @@
           <cell r="B171" t="str">
             <v>迷宫复活道具</v>
           </cell>
+          <cell r="C171"/>
           <cell r="D171" t="str">
             <v>prop,809</v>
           </cell>
@@ -3529,10 +3648,21 @@
             <v>200</v>
           </cell>
         </row>
+        <row r="188">
+          <cell r="A188"/>
+          <cell r="B188"/>
+          <cell r="C188"/>
+          <cell r="D188"/>
+          <cell r="E188"/>
+        </row>
         <row r="189">
           <cell r="A189" t="str">
             <v>英雄</v>
           </cell>
+          <cell r="B189"/>
+          <cell r="C189"/>
+          <cell r="D189"/>
+          <cell r="E189"/>
         </row>
         <row r="190">
           <cell r="A190">
@@ -4615,9 +4745,9 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5555,10 +5685,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6051254C-E71C-4774-BD5C-F67D68329874}">
-  <dimension ref="A1:Y32"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5727,7 +5857,7 @@
         <f>M3+J3</f>
         <v>1600</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="5">
         <f>B4</f>
         <v>1500</v>
       </c>
@@ -5738,11 +5868,11 @@
         <v>78</v>
       </c>
       <c r="U3" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V3" s="4">
         <f>VLOOKUP(T3,价值!$B:$G,6,0)*U3</f>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="W3" s="4"/>
       <c r="X3" s="4"/>
@@ -5790,6 +5920,7 @@
         <f t="shared" ref="N4:N13" si="0">M4+J4</f>
         <v>900</v>
       </c>
+      <c r="Q4" s="5"/>
       <c r="S4" s="4">
         <v>20000</v>
       </c>
@@ -5851,6 +5982,7 @@
         <f t="shared" si="0"/>
         <v>840</v>
       </c>
+      <c r="Q5" s="5"/>
       <c r="S5" s="4">
         <v>40000</v>
       </c>
@@ -5858,11 +5990,11 @@
         <v>79</v>
       </c>
       <c r="U5" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V5" s="4">
         <f>VLOOKUP(T5,价值!$B:$G,6,0)*U5</f>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="W5" s="4"/>
       <c r="X5" s="4"/>
@@ -5912,6 +6044,7 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
+      <c r="Q6" s="5"/>
       <c r="S6" s="4">
         <v>50000</v>
       </c>
@@ -5974,7 +6107,7 @@
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="5">
         <f>C4</f>
         <v>200</v>
       </c>
@@ -5985,11 +6118,11 @@
         <v>78</v>
       </c>
       <c r="U7" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V7" s="4">
         <f>VLOOKUP(T7,价值!$B:$G,6,0)*U7</f>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="W7" s="4"/>
       <c r="X7" s="4"/>
@@ -6037,6 +6170,7 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
+      <c r="Q8" s="5"/>
       <c r="S8" s="4">
         <v>70000</v>
       </c>
@@ -6084,6 +6218,7 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
+      <c r="Q9" s="5"/>
       <c r="S9" s="4">
         <v>80000</v>
       </c>
@@ -6091,11 +6226,11 @@
         <v>79</v>
       </c>
       <c r="U9" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V9" s="4">
         <f>VLOOKUP(T9,价值!$B:$G,6,0)*U9</f>
-        <v>180</v>
+        <v>90</v>
       </c>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
@@ -6131,7 +6266,7 @@
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="5">
         <f>D4</f>
         <v>100</v>
       </c>
@@ -6182,6 +6317,7 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
+      <c r="Q11" s="5"/>
       <c r="S11" s="4">
         <v>100000</v>
       </c>
@@ -6189,11 +6325,11 @@
         <v>80</v>
       </c>
       <c r="U11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V11" s="4">
         <f>VLOOKUP(T11,价值!$B:$G,6,0)*U11</f>
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
@@ -6232,6 +6368,7 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
+      <c r="Q12" s="5"/>
       <c r="S12" s="4">
         <v>110000</v>
       </c>
@@ -6239,11 +6376,11 @@
         <v>72</v>
       </c>
       <c r="U12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V12" s="4">
         <f>VLOOKUP(T12,价值!$B:$G,6,0)*U12</f>
-        <v>1200</v>
+        <v>600</v>
       </c>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
@@ -6282,6 +6419,7 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
+      <c r="Q13" s="5"/>
       <c r="S13" s="4">
         <v>120000</v>
       </c>
@@ -6289,11 +6427,11 @@
         <v>81</v>
       </c>
       <c r="U13" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V13" s="4">
         <f>VLOOKUP(T13,价值!$B:$G,6,0)*U13</f>
-        <v>720</v>
+        <v>360</v>
       </c>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
@@ -6303,14 +6441,14 @@
         <v>130000</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="U14" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V14" s="4">
         <f>VLOOKUP(T14,价值!$B:$G,6,0)*U14</f>
-        <v>1200</v>
+        <v>4800</v>
       </c>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
@@ -6358,12 +6496,12 @@
       </c>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="4">
+      <c r="Y16" s="5">
         <f>D3</f>
         <v>17200</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>28</v>
       </c>
@@ -6374,12 +6512,12 @@
       <c r="U17" s="4"/>
       <c r="V17" s="4">
         <f>SUM(V2:V16)</f>
-        <v>15660</v>
+        <v>17580</v>
       </c>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>55</v>
       </c>
@@ -6396,7 +6534,7 @@
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F19" s="1" t="s">
         <v>24</v>
       </c>
@@ -6454,8 +6592,11 @@
       <c r="Y19" s="4" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>56</v>
       </c>
@@ -6492,20 +6633,39 @@
         <f>J20+M20</f>
         <v>3300</v>
       </c>
-      <c r="Q20" s="4">
+      <c r="Q20" s="5">
         <f>B5</f>
         <v>3300</v>
       </c>
       <c r="S20" s="4">
         <v>1</v>
       </c>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T20" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U20" s="4">
+        <v>1</v>
+      </c>
+      <c r="V20" s="4">
+        <f>VLOOKUP(T20,价值!$B:$G,6,0)*U20</f>
+        <v>15</v>
+      </c>
+      <c r="W20" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X20" s="4">
+        <v>750</v>
+      </c>
+      <c r="Y20" s="4">
+        <f>VLOOKUP(W20,价值!$B:$G,6,0)*X20</f>
+        <v>15</v>
+      </c>
+      <c r="Z20" s="5">
+        <f>D8</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
@@ -6543,16 +6703,33 @@
         <f t="shared" ref="N21:N28" si="1">J21+M21</f>
         <v>2700</v>
       </c>
+      <c r="Q21" s="5"/>
       <c r="S21" s="4">
         <v>2</v>
       </c>
-      <c r="T21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="4"/>
-      <c r="X21" s="4"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T21" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U21" s="4">
+        <v>1</v>
+      </c>
+      <c r="V21" s="4">
+        <f>VLOOKUP(T21,价值!$B:$G,6,0)*U21</f>
+        <v>15</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X21" s="4">
+        <v>800</v>
+      </c>
+      <c r="Y21" s="4">
+        <f>VLOOKUP(W21,价值!$B:$G,6,0)*X21</f>
+        <v>16</v>
+      </c>
+      <c r="Z21" s="5"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F22" s="1">
         <v>3</v>
       </c>
@@ -6583,16 +6760,33 @@
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
+      <c r="Q22" s="5"/>
       <c r="S22" s="4">
         <v>3</v>
       </c>
-      <c r="T22" s="4"/>
-      <c r="U22" s="4"/>
-      <c r="V22" s="4"/>
-      <c r="W22" s="4"/>
-      <c r="X22" s="4"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T22" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U22" s="4">
+        <v>1</v>
+      </c>
+      <c r="V22" s="4">
+        <f>VLOOKUP(T22,价值!$B:$G,6,0)*U22</f>
+        <v>15</v>
+      </c>
+      <c r="W22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X22" s="4">
+        <v>850</v>
+      </c>
+      <c r="Y22" s="4">
+        <f>VLOOKUP(W22,价值!$B:$G,6,0)*X22</f>
+        <v>17</v>
+      </c>
+      <c r="Z22" s="5"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>76</v>
       </c>
@@ -6629,20 +6823,36 @@
         <f t="shared" si="1"/>
         <v>1850</v>
       </c>
-      <c r="Q23" s="4">
+      <c r="Q23" s="5">
         <f>C5</f>
         <v>1800</v>
       </c>
       <c r="S23" s="4">
         <v>4</v>
       </c>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="4"/>
-      <c r="X23" s="4"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T23" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U23" s="4">
+        <v>1</v>
+      </c>
+      <c r="V23" s="4">
+        <f>VLOOKUP(T23,价值!$B:$G,6,0)*U23</f>
+        <v>15</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X23" s="4">
+        <v>900</v>
+      </c>
+      <c r="Y23" s="4">
+        <f>VLOOKUP(W23,价值!$B:$G,6,0)*X23</f>
+        <v>18</v>
+      </c>
+      <c r="Z23" s="5"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>77</v>
       </c>
@@ -6680,16 +6890,33 @@
         <f t="shared" si="1"/>
         <v>1600</v>
       </c>
+      <c r="Q24" s="5"/>
       <c r="S24" s="4">
         <v>5</v>
       </c>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U24" s="4">
+        <v>1</v>
+      </c>
+      <c r="V24" s="4">
+        <f>VLOOKUP(T24,价值!$B:$G,6,0)*U24</f>
+        <v>15</v>
+      </c>
+      <c r="W24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X24" s="4">
+        <v>950</v>
+      </c>
+      <c r="Y24" s="4">
+        <f>VLOOKUP(W24,价值!$B:$G,6,0)*X24</f>
+        <v>19</v>
+      </c>
+      <c r="Z24" s="5"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F25" s="1">
         <v>15</v>
       </c>
@@ -6720,16 +6947,33 @@
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
+      <c r="Q25" s="5"/>
       <c r="S25" s="4">
         <v>6</v>
       </c>
-      <c r="T25" s="4"/>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
-      <c r="X25" s="4"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T25" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U25" s="4">
+        <v>1</v>
+      </c>
+      <c r="V25" s="4">
+        <f>VLOOKUP(T25,价值!$B:$G,6,0)*U25</f>
+        <v>15</v>
+      </c>
+      <c r="W25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X25" s="4">
+        <v>1000</v>
+      </c>
+      <c r="Y25" s="4">
+        <f>VLOOKUP(W25,价值!$B:$G,6,0)*X25</f>
+        <v>20</v>
+      </c>
+      <c r="Z25" s="5"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F26" s="1">
         <v>20</v>
       </c>
@@ -6760,11 +7004,33 @@
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
+      <c r="Q26" s="5"/>
       <c r="S26" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U26" s="4">
+        <v>1</v>
+      </c>
+      <c r="V26" s="4">
+        <f>VLOOKUP(T26,价值!$B:$G,6,0)*U26</f>
+        <v>15</v>
+      </c>
+      <c r="W26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X26" s="4">
+        <v>1100</v>
+      </c>
+      <c r="Y26" s="4">
+        <f>VLOOKUP(W26,价值!$B:$G,6,0)*X26</f>
+        <v>22</v>
+      </c>
+      <c r="Z26" s="5"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F27" s="1">
         <v>30</v>
       </c>
@@ -6795,11 +7061,33 @@
         <f t="shared" si="1"/>
         <v>400</v>
       </c>
+      <c r="Q27" s="5"/>
       <c r="S27" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T27" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U27" s="4">
+        <v>1</v>
+      </c>
+      <c r="V27" s="4">
+        <f>VLOOKUP(T27,价值!$B:$G,6,0)*U27</f>
+        <v>15</v>
+      </c>
+      <c r="W27" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X27" s="4">
+        <v>1200</v>
+      </c>
+      <c r="Y27" s="4">
+        <f>VLOOKUP(W27,价值!$B:$G,6,0)*X27</f>
+        <v>24</v>
+      </c>
+      <c r="Z27" s="5"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="F28" s="1">
         <v>50</v>
       </c>
@@ -6829,32 +7117,140 @@
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="Q28" s="4">
+      <c r="Q28" s="5">
         <f>D5</f>
         <v>100</v>
       </c>
       <c r="S28" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T28" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U28" s="4">
+        <v>1</v>
+      </c>
+      <c r="V28" s="4">
+        <f>VLOOKUP(T28,价值!$B:$G,6,0)*U28</f>
+        <v>15</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X28" s="4">
+        <v>1300</v>
+      </c>
+      <c r="Y28" s="4">
+        <f>VLOOKUP(W28,价值!$B:$G,6,0)*X28</f>
+        <v>26</v>
+      </c>
+      <c r="Z28" s="5"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="S29" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T29" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U29" s="4">
+        <v>1</v>
+      </c>
+      <c r="V29" s="4">
+        <f>VLOOKUP(T29,价值!$B:$G,6,0)*U29</f>
+        <v>15</v>
+      </c>
+      <c r="W29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X29" s="4">
+        <v>1400</v>
+      </c>
+      <c r="Y29" s="4">
+        <f>VLOOKUP(W29,价值!$B:$G,6,0)*X29</f>
+        <v>28</v>
+      </c>
+      <c r="Z29" s="5"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="S30" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T30" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U30" s="4">
+        <v>1</v>
+      </c>
+      <c r="V30" s="4">
+        <f>VLOOKUP(T30,价值!$B:$G,6,0)*U30</f>
+        <v>15</v>
+      </c>
+      <c r="W30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X30" s="4">
+        <v>1500</v>
+      </c>
+      <c r="Y30" s="4">
+        <f>VLOOKUP(W30,价值!$B:$G,6,0)*X30</f>
+        <v>30</v>
+      </c>
+      <c r="Z30" s="5"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="S31" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="T31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U31" s="4">
+        <v>1</v>
+      </c>
+      <c r="V31" s="4">
+        <f>VLOOKUP(T31,价值!$B:$G,6,0)*U31</f>
+        <v>15</v>
+      </c>
+      <c r="W31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X31" s="4">
+        <v>1600</v>
+      </c>
+      <c r="Y31" s="4">
+        <f>VLOOKUP(W31,价值!$B:$G,6,0)*X31</f>
+        <v>32</v>
+      </c>
+      <c r="Z31" s="5"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="S32" s="4">
         <v>13</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="U32" s="4">
+        <v>1</v>
+      </c>
+      <c r="V32" s="4">
+        <f>VLOOKUP(T32,价值!$B:$G,6,0)*U32</f>
+        <v>15</v>
+      </c>
+      <c r="W32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X32" s="4">
+        <v>1750</v>
+      </c>
+      <c r="Y32" s="4">
+        <f>VLOOKUP(W32,价值!$B:$G,6,0)*X32</f>
+        <v>35</v>
+      </c>
+      <c r="Z32" s="5">
+        <f>B8</f>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
